--- a/5-Implementacion/16-Reporte de entrega.xlsx
+++ b/5-Implementacion/16-Reporte de entrega.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6625E4C0-10C2-4A3F-B299-232CDE65AD53}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF4B9A2F-E7DA-4156-9C25-AF980F6BF818}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="3870" yWindow="2625" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -168,75 +168,69 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -588,346 +582,369 @@
   </sheetPr>
   <dimension ref="B12:K54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:L58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="27"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="27"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="G17" t="s">
         <v>6</v>
       </c>
-      <c r="H17" s="29"/>
-      <c r="I17" s="29"/>
-      <c r="J17" s="29"/>
-      <c r="K17" s="29"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="4" t="s">
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="G25" s="5"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="4" t="s">
+      <c r="G25" s="14"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="J25" s="5"/>
-      <c r="K25" s="6"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="15"/>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B26" s="7"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="9"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="18"/>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B27" s="15"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="12"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="23"/>
       <c r="H27" s="24"/>
-      <c r="I27" s="23"/>
-      <c r="J27" s="12"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="23"/>
       <c r="K27" s="24"/>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B28" s="17"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="25"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="13"/>
-      <c r="K28" s="25"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="26"/>
+      <c r="I28" s="25"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="26"/>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B29" s="17"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="25"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="13"/>
-      <c r="K29" s="25"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="26"/>
+      <c r="I29" s="25"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="26"/>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B30" s="17"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="25"/>
-      <c r="I30" s="10"/>
-      <c r="J30" s="13"/>
-      <c r="K30" s="25"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="26"/>
+      <c r="I30" s="25"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="26"/>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B31" s="20"/>
-      <c r="C31" s="21"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="26"/>
-      <c r="G31" s="27"/>
-      <c r="H31" s="28"/>
-      <c r="I31" s="26"/>
-      <c r="J31" s="27"/>
-      <c r="K31" s="28"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="20"/>
+      <c r="K31" s="21"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.25">
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
-      <c r="I32" s="14"/>
-      <c r="J32" s="14"/>
-      <c r="K32" s="14"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.25">
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
-      <c r="I33" s="14"/>
-      <c r="J33" s="14"/>
-      <c r="K33" s="14"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.25">
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
-      <c r="I34" s="14"/>
-      <c r="J34" s="14"/>
-      <c r="K34" s="14"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.25">
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
-      <c r="I35" s="14"/>
-      <c r="J35" s="14"/>
-      <c r="K35" s="14"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.25">
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
-      <c r="I36" s="14"/>
-      <c r="J36" s="14"/>
-      <c r="K36" s="14"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="4" t="s">
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="14"/>
+      <c r="H37" s="15"/>
+      <c r="I37" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="J37" s="5"/>
-      <c r="K37" s="6"/>
+      <c r="J37" s="14"/>
+      <c r="K37" s="15"/>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B38" s="7"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="7"/>
-      <c r="J38" s="8"/>
-      <c r="K38" s="9"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="18"/>
+      <c r="I38" s="16"/>
+      <c r="J38" s="17"/>
+      <c r="K38" s="18"/>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B39" s="15"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="11"/>
-      <c r="G39" s="11"/>
-      <c r="H39" s="16"/>
-      <c r="I39" s="15"/>
-      <c r="J39" s="11"/>
-      <c r="K39" s="16"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="8"/>
+      <c r="K39" s="9"/>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B40" s="17"/>
-      <c r="C40" s="18"/>
-      <c r="D40" s="18"/>
-      <c r="E40" s="18"/>
-      <c r="F40" s="18"/>
-      <c r="G40" s="18"/>
-      <c r="H40" s="19"/>
-      <c r="I40" s="17"/>
-      <c r="J40" s="18"/>
-      <c r="K40" s="19"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="12"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="12"/>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B41" s="17"/>
-      <c r="C41" s="18"/>
-      <c r="D41" s="18"/>
-      <c r="E41" s="18"/>
-      <c r="F41" s="18"/>
-      <c r="G41" s="18"/>
-      <c r="H41" s="19"/>
-      <c r="I41" s="17"/>
-      <c r="J41" s="18"/>
-      <c r="K41" s="19"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="12"/>
+      <c r="I41" s="10"/>
+      <c r="J41" s="11"/>
+      <c r="K41" s="12"/>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B42" s="17"/>
-      <c r="C42" s="18"/>
-      <c r="D42" s="18"/>
-      <c r="E42" s="18"/>
-      <c r="F42" s="18"/>
-      <c r="G42" s="18"/>
-      <c r="H42" s="19"/>
-      <c r="I42" s="17"/>
-      <c r="J42" s="18"/>
-      <c r="K42" s="19"/>
+      <c r="B42" s="10"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="12"/>
+      <c r="I42" s="10"/>
+      <c r="J42" s="11"/>
+      <c r="K42" s="12"/>
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B43" s="17"/>
-      <c r="C43" s="18"/>
-      <c r="D43" s="18"/>
-      <c r="E43" s="18"/>
-      <c r="F43" s="18"/>
-      <c r="G43" s="18"/>
-      <c r="H43" s="19"/>
-      <c r="I43" s="20"/>
-      <c r="J43" s="21"/>
-      <c r="K43" s="22"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="12"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="5"/>
+      <c r="K43" s="6"/>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B44" s="17"/>
-      <c r="C44" s="18"/>
-      <c r="D44" s="18"/>
-      <c r="E44" s="18"/>
-      <c r="F44" s="18"/>
-      <c r="G44" s="18"/>
-      <c r="H44" s="19"/>
+      <c r="B44" s="10"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="12"/>
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B45" s="17"/>
-      <c r="C45" s="18"/>
-      <c r="D45" s="18"/>
-      <c r="E45" s="18"/>
-      <c r="F45" s="18"/>
-      <c r="G45" s="18"/>
-      <c r="H45" s="19"/>
+      <c r="B45" s="10"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="12"/>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B46" s="17"/>
-      <c r="C46" s="18"/>
-      <c r="D46" s="18"/>
-      <c r="E46" s="18"/>
-      <c r="F46" s="18"/>
-      <c r="G46" s="18"/>
-      <c r="H46" s="19"/>
+      <c r="B46" s="10"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="12"/>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B47" s="17"/>
-      <c r="C47" s="18"/>
-      <c r="D47" s="18"/>
-      <c r="E47" s="18"/>
-      <c r="F47" s="18"/>
-      <c r="G47" s="18"/>
-      <c r="H47" s="19"/>
+      <c r="B47" s="10"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="11"/>
+      <c r="H47" s="12"/>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B48" s="17"/>
-      <c r="C48" s="18"/>
-      <c r="D48" s="18"/>
-      <c r="E48" s="18"/>
-      <c r="F48" s="18"/>
-      <c r="G48" s="18"/>
-      <c r="H48" s="19"/>
+      <c r="B48" s="10"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="11"/>
+      <c r="H48" s="12"/>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B49" s="20"/>
-      <c r="C49" s="21"/>
-      <c r="D49" s="21"/>
-      <c r="E49" s="21"/>
-      <c r="F49" s="21"/>
-      <c r="G49" s="21"/>
-      <c r="H49" s="22"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="6"/>
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B54" s="2" t="s">
+      <c r="B54" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
-      <c r="E54" s="29"/>
-      <c r="F54" s="29"/>
-      <c r="G54" s="29"/>
-      <c r="H54" s="29"/>
-      <c r="I54" s="29"/>
-      <c r="J54" s="29"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+      <c r="I54" s="2"/>
+      <c r="J54" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="B12:K14"/>
+    <mergeCell ref="B25:E26"/>
+    <mergeCell ref="F25:H26"/>
+    <mergeCell ref="I25:K26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="I31:K31"/>
+    <mergeCell ref="B37:H38"/>
+    <mergeCell ref="I37:K38"/>
+    <mergeCell ref="B39:H39"/>
+    <mergeCell ref="B40:H40"/>
+    <mergeCell ref="F31:H31"/>
     <mergeCell ref="B54:D54"/>
     <mergeCell ref="B49:H49"/>
     <mergeCell ref="I39:K39"/>
@@ -943,29 +960,6 @@
     <mergeCell ref="B48:H48"/>
     <mergeCell ref="B41:H41"/>
     <mergeCell ref="B42:H42"/>
-    <mergeCell ref="B37:H38"/>
-    <mergeCell ref="I37:K38"/>
-    <mergeCell ref="B39:H39"/>
-    <mergeCell ref="B40:H40"/>
-    <mergeCell ref="F31:H31"/>
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="I29:K29"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="I31:K31"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="B12:K14"/>
-    <mergeCell ref="B25:E26"/>
-    <mergeCell ref="F25:H26"/>
-    <mergeCell ref="I25:K26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="81" orientation="portrait" r:id="rId1"/>
